--- a/FreeCRMTest/Testdata/SpreadSheetData.xlsx
+++ b/FreeCRMTest/Testdata/SpreadSheetData.xlsx
@@ -4,24 +4,30 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="12105" windowHeight="2805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Result</t>
   </si>
   <si>
     <t>testID</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>Window_Handle_ID</t>
   </si>
 </sst>
 </file>
@@ -57,8 +63,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,24 +367,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/FreeCRMTest/Testdata/SpreadSheetData.xlsx
+++ b/FreeCRMTest/Testdata/SpreadSheetData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>Result</t>
   </si>
@@ -27,13 +27,14 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>Window_Handle_ID</t>
+    <t>windowHandleID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,12 +371,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -386,10 +387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
+    <row r="2">
       <c r="B2" t="s">
         <v>2</v>
       </c>

--- a/FreeCRMTest/Testdata/SpreadSheetData.xlsx
+++ b/FreeCRMTest/Testdata/SpreadSheetData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="4">
   <si>
     <t>Result</t>
   </si>
@@ -368,7 +368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -388,7 +388,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>

--- a/FreeCRMTest/Testdata/SpreadSheetData.xlsx
+++ b/FreeCRMTest/Testdata/SpreadSheetData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="4">
   <si>
     <t>Result</t>
   </si>

--- a/FreeCRMTest/Testdata/SpreadSheetData.xlsx
+++ b/FreeCRMTest/Testdata/SpreadSheetData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="4">
   <si>
     <t>Result</t>
   </si>
@@ -368,7 +368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -388,7 +388,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="C2" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
